--- a/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,96 +40,87 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>poor</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>fear</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>recession</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -142,6 +133,9 @@
     <t>beauty</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>strong</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>friend</t>
   </si>
   <si>
@@ -166,61 +157,73 @@
     <t>great</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>important</t>
   </si>
   <si>
     <t>credit</t>
@@ -229,105 +232,111 @@
     <t>dear</t>
   </si>
   <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
     <t>essential</t>
   </si>
   <si>
-    <t>health</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
@@ -335,6 +344,9 @@
   </si>
   <si>
     <t>supermarket</t>
+  </si>
+  <si>
+    <t>san</t>
   </si>
   <si>
     <t>19</t>
@@ -704,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,10 +724,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -776,10 +788,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -794,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -826,10 +838,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -844,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -894,16 +906,16 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.9661016949152542</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -915,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -923,13 +935,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -941,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.9615384615384616</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -965,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -973,13 +985,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -991,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.9565217391304348</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1015,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1023,13 +1035,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.72</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1041,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.9545454545454546</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1065,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1073,13 +1085,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7054794520547946</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="C9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1091,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.9393939393939394</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1115,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1123,13 +1135,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6551724137931034</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1141,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.8947368421052632</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1165,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1173,13 +1185,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1191,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>0.8888888888888888</v>
@@ -1223,13 +1235,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6153846153846154</v>
+        <v>0.5</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1241,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.8839285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M12">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1265,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1273,13 +1285,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5526315789473685</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1291,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.8414634146341463</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L13">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1315,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1323,13 +1335,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5128205128205128</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1341,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.8333333333333334</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1365,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1373,13 +1385,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1391,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.8214285714285714</v>
+        <v>0.84375</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1415,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1444,16 +1456,16 @@
         <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.8203125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L16">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1465,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1473,13 +1485,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3846153846153846</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1491,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.8103448275862069</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L17">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1515,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1523,13 +1535,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3783783783783784</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1541,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.8</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L18">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="M18">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1565,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1573,13 +1585,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.36</v>
+        <v>0.3624161073825503</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1591,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.795774647887324</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L19">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1615,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1623,13 +1635,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3513513513513514</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1641,19 +1653,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.7843137254901961</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1665,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1673,13 +1685,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3422818791946309</v>
+        <v>0.3275193798449613</v>
       </c>
       <c r="C21">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="D21">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1691,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>98</v>
+        <v>347</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1723,13 +1735,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3391472868217054</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C22">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1741,19 +1753,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.7735849056603774</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L22">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="M22">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1765,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1773,13 +1785,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3137254901960784</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1791,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1815,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1823,13 +1835,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3050847457627119</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1841,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K24">
         <v>0.7619047619047619</v>
@@ -1873,13 +1885,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3050847457627119</v>
+        <v>0.2804232804232804</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1891,19 +1903,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.75</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1915,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1923,13 +1935,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2941176470588235</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1941,10 +1953,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K26">
         <v>0.7391304347826086</v>
@@ -1973,13 +1985,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2804232804232804</v>
+        <v>0.2</v>
       </c>
       <c r="C27">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1991,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.7</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L27">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="M27">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2015,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2023,13 +2035,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2467532467532468</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2041,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.6702127659574468</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L28">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="M28">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2065,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2073,7 +2085,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2321428571428572</v>
+        <v>0.1625</v>
       </c>
       <c r="C29">
         <v>13</v>
@@ -2091,19 +2103,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2115,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2123,395 +2135,323 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2111111111111111</v>
+        <v>0.09919571045576407</v>
       </c>
       <c r="C30">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>37</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>336</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L31">
+        <v>64</v>
+      </c>
+      <c r="M31">
+        <v>64</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32">
+        <v>0.64</v>
+      </c>
+      <c r="L32">
+        <v>32</v>
+      </c>
+      <c r="M32">
+        <v>32</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33">
+        <v>0.625</v>
+      </c>
+      <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34">
+        <v>0.6240208877284595</v>
+      </c>
+      <c r="L34">
+        <v>239</v>
+      </c>
+      <c r="M34">
+        <v>239</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L35">
+        <v>28</v>
+      </c>
+      <c r="M35">
+        <v>28</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="L36">
+        <v>21</v>
+      </c>
+      <c r="M36">
+        <v>21</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="L37">
+        <v>17</v>
+      </c>
+      <c r="M37">
+        <v>17</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="L38">
+        <v>17</v>
+      </c>
+      <c r="M38">
+        <v>17</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39">
+        <v>0.6</v>
+      </c>
+      <c r="L39">
+        <v>24</v>
+      </c>
+      <c r="M39">
+        <v>24</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40">
+        <v>0.5806451612903226</v>
+      </c>
+      <c r="L40">
+        <v>18</v>
+      </c>
+      <c r="M40">
+        <v>18</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="L41">
         <v>19</v>
       </c>
-      <c r="D30">
+      <c r="M41">
         <v>19</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>71</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30">
-        <v>0.6344647519582245</v>
-      </c>
-      <c r="L30">
-        <v>243</v>
-      </c>
-      <c r="M30">
-        <v>243</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.175</v>
-      </c>
-      <c r="C31">
-        <v>14</v>
-      </c>
-      <c r="D31">
-        <v>14</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>66</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31">
-        <v>0.625</v>
-      </c>
-      <c r="L31">
-        <v>30</v>
-      </c>
-      <c r="M31">
-        <v>30</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.1706349206349206</v>
-      </c>
-      <c r="C32">
-        <v>43</v>
-      </c>
-      <c r="D32">
-        <v>43</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>209</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32">
-        <v>0.6176470588235294</v>
-      </c>
-      <c r="L32">
-        <v>21</v>
-      </c>
-      <c r="M32">
-        <v>21</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.1260053619302949</v>
-      </c>
-      <c r="C33">
-        <v>47</v>
-      </c>
-      <c r="D33">
-        <v>47</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>326</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="L33">
-        <v>17</v>
-      </c>
-      <c r="M33">
-        <v>17</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34">
-        <v>0.6046511627906976</v>
-      </c>
-      <c r="L34">
-        <v>26</v>
-      </c>
-      <c r="M34">
-        <v>26</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35">
-        <v>0.6</v>
-      </c>
-      <c r="L35">
-        <v>27</v>
-      </c>
-      <c r="M35">
-        <v>27</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36">
-        <v>0.6</v>
-      </c>
-      <c r="L36">
-        <v>24</v>
-      </c>
-      <c r="M36">
-        <v>24</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L37">
-        <v>16</v>
-      </c>
-      <c r="M37">
-        <v>16</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K38">
-        <v>0.5705882352941176</v>
-      </c>
-      <c r="L38">
-        <v>194</v>
-      </c>
-      <c r="M38">
-        <v>194</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39">
-        <v>0.5617977528089888</v>
-      </c>
-      <c r="L39">
-        <v>50</v>
-      </c>
-      <c r="M39">
-        <v>50</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K40">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L40">
-        <v>28</v>
-      </c>
-      <c r="M40">
-        <v>28</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K41">
-        <v>0.5483870967741935</v>
-      </c>
-      <c r="L41">
-        <v>17</v>
-      </c>
-      <c r="M41">
-        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2526,174 +2466,174 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K42">
+        <v>0.5735294117647058</v>
+      </c>
+      <c r="L42">
+        <v>195</v>
+      </c>
+      <c r="M42">
+        <v>195</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43">
+        <v>0.5661016949152542</v>
+      </c>
+      <c r="L43">
+        <v>167</v>
+      </c>
+      <c r="M43">
+        <v>167</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K44">
+        <v>0.5581395348837209</v>
+      </c>
+      <c r="L44">
+        <v>24</v>
+      </c>
+      <c r="M44">
+        <v>24</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K42">
-        <v>0.535593220338983</v>
-      </c>
-      <c r="L42">
-        <v>158</v>
-      </c>
-      <c r="M42">
-        <v>158</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
+      <c r="K45">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45">
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K43">
+      <c r="K46">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L46">
+        <v>13</v>
+      </c>
+      <c r="M46">
+        <v>13</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K47">
+        <v>0.5393258426966292</v>
+      </c>
+      <c r="L47">
+        <v>48</v>
+      </c>
+      <c r="M47">
+        <v>48</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K48">
         <v>0.5</v>
       </c>
-      <c r="L43">
-        <v>20</v>
-      </c>
-      <c r="M43">
-        <v>20</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K44">
-        <v>0.4937238493723849</v>
-      </c>
-      <c r="L44">
-        <v>118</v>
-      </c>
-      <c r="M44">
-        <v>118</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K45">
-        <v>0.4857142857142857</v>
-      </c>
-      <c r="L45">
-        <v>17</v>
-      </c>
-      <c r="M45">
-        <v>17</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K46">
-        <v>0.4657534246575342</v>
-      </c>
-      <c r="L46">
-        <v>34</v>
-      </c>
-      <c r="M46">
-        <v>34</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K47">
-        <v>0.4523809523809524</v>
-      </c>
-      <c r="L47">
-        <v>19</v>
-      </c>
-      <c r="M47">
-        <v>19</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K48">
-        <v>0.4461538461538462</v>
-      </c>
       <c r="L48">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2705,15 +2645,15 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K49">
-        <v>0.4242424242424243</v>
+        <v>0.5</v>
       </c>
       <c r="L49">
         <v>14</v>
@@ -2731,21 +2671,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K50">
-        <v>0.421875</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L50">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M50">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2757,21 +2697,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K51">
-        <v>0.4102564102564102</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L51">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2783,21 +2723,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K52">
-        <v>0.3285714285714286</v>
+        <v>0.4560669456066946</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2809,15 +2749,15 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>47</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K53">
-        <v>0.2950819672131147</v>
+        <v>0.45</v>
       </c>
       <c r="L53">
         <v>18</v>
@@ -2835,21 +2775,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K54">
-        <v>0.2542372881355932</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L54">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2861,21 +2801,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K55">
-        <v>0.2372881355932203</v>
+        <v>0.4375</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2887,21 +2827,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K56">
-        <v>0.2083333333333333</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2913,21 +2853,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K57">
-        <v>0.1653543307086614</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L57">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M57">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2939,21 +2879,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K58">
-        <v>0.1450381679389313</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L58">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M58">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2965,21 +2905,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>112</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K59">
-        <v>0.1004784688995215</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L59">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M59">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2991,21 +2931,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>376</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K60">
-        <v>0.09302325581395349</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3017,21 +2957,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>195</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K61">
-        <v>0.09134615384615384</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L61">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3043,21 +2983,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>378</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K62">
-        <v>0.07878787878787878</v>
+        <v>0.1732283464566929</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3069,47 +3009,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>152</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K63">
-        <v>0.07009345794392523</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N63">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>199</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K64">
-        <v>0.06599552572706935</v>
+        <v>0.1028708133971292</v>
       </c>
       <c r="L64">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M64">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3121,125 +3061,125 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>835</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K65">
-        <v>0.0611353711790393</v>
+        <v>0.1023255813953488</v>
       </c>
       <c r="L65">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N65">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K66">
-        <v>0.05504587155963303</v>
+        <v>0.09848484848484848</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>309</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K67">
-        <v>0.04777777777777778</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L67">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N67">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>857</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K68">
-        <v>0.04006163328197226</v>
+        <v>0.08176100628930817</v>
       </c>
       <c r="L68">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N68">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>623</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K69">
-        <v>0.02883506343713956</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="L69">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M69">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3251,73 +3191,73 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>842</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K70">
-        <v>0.02244039270687237</v>
+        <v>0.05257270693512305</v>
       </c>
       <c r="L70">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M70">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N70">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>2091</v>
+        <v>847</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K71">
-        <v>0.01547388781431335</v>
+        <v>0.04281345565749235</v>
       </c>
       <c r="L71">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="M71">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="N71">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>3054</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K72">
-        <v>0.01446280991735537</v>
+        <v>0.04220779220779221</v>
       </c>
       <c r="L72">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M72">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3329,33 +3269,215 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>954</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K73">
+        <v>0.03995560488346282</v>
+      </c>
+      <c r="L73">
+        <v>36</v>
+      </c>
+      <c r="M73">
+        <v>36</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K74">
+        <v>0.03240740740740741</v>
+      </c>
+      <c r="L74">
+        <v>21</v>
+      </c>
+      <c r="M74">
+        <v>23</v>
+      </c>
+      <c r="N74">
+        <v>0.91</v>
+      </c>
+      <c r="O74">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K75">
+        <v>0.02883506343713956</v>
+      </c>
+      <c r="L75">
+        <v>25</v>
+      </c>
+      <c r="M75">
+        <v>25</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K73">
-        <v>0.006259780907668232</v>
-      </c>
-      <c r="L73">
-        <v>20</v>
-      </c>
-      <c r="M73">
-        <v>26</v>
-      </c>
-      <c r="N73">
+      <c r="K76">
+        <v>0.02880658436213992</v>
+      </c>
+      <c r="L76">
+        <v>14</v>
+      </c>
+      <c r="M76">
+        <v>14</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K77">
+        <v>0.02616822429906542</v>
+      </c>
+      <c r="L77">
+        <v>56</v>
+      </c>
+      <c r="M77">
+        <v>59</v>
+      </c>
+      <c r="N77">
+        <v>0.95</v>
+      </c>
+      <c r="O77">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K78">
+        <v>0.01579626047711154</v>
+      </c>
+      <c r="L78">
+        <v>49</v>
+      </c>
+      <c r="M78">
+        <v>54</v>
+      </c>
+      <c r="N78">
+        <v>0.91</v>
+      </c>
+      <c r="O78">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K79">
+        <v>0.01446280991735537</v>
+      </c>
+      <c r="L79">
+        <v>14</v>
+      </c>
+      <c r="M79">
+        <v>14</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K80">
+        <v>0.005319148936170213</v>
+      </c>
+      <c r="L80">
+        <v>17</v>
+      </c>
+      <c r="M80">
+        <v>22</v>
+      </c>
+      <c r="N80">
         <v>0.77</v>
       </c>
-      <c r="O73">
+      <c r="O80">
         <v>0.23</v>
       </c>
-      <c r="P73" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>3175</v>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>3179</v>
       </c>
     </row>
   </sheetData>
